--- a/biology/Médecine/École_supérieure_d'ostéopathie/École_supérieure_d'ostéopathie.xlsx
+++ b/biology/Médecine/École_supérieure_d'ostéopathie/École_supérieure_d'ostéopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_sup%C3%A9rieure_d%27ost%C3%A9opathie</t>
+          <t>École_supérieure_d'ostéopathie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'école supérieure d'ostéopathie (ESO Paris) est un établissement privé d'enseignement supérieur d'ostéopathie fondée en 1990 et délivrant un cursus de 5 ans (niveau Master) avec la possibilité de poursuivre par une année de spécialisation, directement après le Baccalauréat. La formation se déroule selon les recommandations de l'Organisation mondiale de la santé. L'établissement est enregistré auprès du rectorat de l’Académie de Créteil et agréé par le Ministère de la Santé (arrêté du 9 août 2007).
 L'école est située sur la Cité Descartes, sur le Campus de Marne-la-Vallée. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_sup%C3%A9rieure_d%27ost%C3%A9opathie</t>
+          <t>École_supérieure_d'ostéopathie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la médecine   Portail de l’éducation                    </t>
